--- a/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud mental (SF12)</t>
+          <t>Puntuación media del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,54</t>
+          <t>53,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,42</t>
+          <t>52,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,24</t>
+          <t>52,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,05</t>
+          <t>52,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,7</t>
+          <t>51,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,13</t>
+          <t>48,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,93</t>
+          <t>50,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,12</t>
+          <t>51,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,13</t>
+          <t>52,61</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,29</t>
+          <t>50,52</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>51,1</t>
+          <t>51,34</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>52,53</t>
+          <t>52,17</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,36; 55,41</t>
+          <t>52,76; 53,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,99; 52,58</t>
+          <t>51,67; 52,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,64</t>
+          <t>51,65; 52,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,28; 54,42</t>
+          <t>52,19; 53,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,25; 54,98</t>
+          <t>51,41; 52,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,15; 50,88</t>
+          <t>47,93; 49,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,81; 51,79</t>
+          <t>49,6; 51,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,9; 53,26</t>
+          <t>50,91; 52,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 54,88</t>
+          <t>52,19; 52,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,07; 51,45</t>
+          <t>49,98; 50,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,83; 52,25</t>
+          <t>50,72; 51,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 53,35</t>
+          <t>51,68; 52,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,96</t>
+          <t>52,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,5</t>
+          <t>51,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,29</t>
+          <t>52,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,69</t>
+          <t>53,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,64</t>
+          <t>50,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,63</t>
+          <t>49,41</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,49</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,23</t>
+          <t>50,82</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,3</t>
+          <t>51,51</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50,57</t>
+          <t>50,65</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,39</t>
+          <t>51,86</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,93</t>
+          <t>52,25</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,42; 53,46</t>
+          <t>51,92; 52,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 53,08</t>
+          <t>51,36; 52,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 52,89</t>
+          <t>52,46; 53,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,37</t>
+          <t>52,69; 54,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,18</t>
+          <t>50,02; 51,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,73; 49,49</t>
+          <t>48,65; 50,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,57; 51,19</t>
+          <t>50,25; 51,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 51,82</t>
+          <t>50,27; 51,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,89; 52,69</t>
+          <t>51,13; 51,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,09</t>
+          <t>50,25; 51,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,87; 51,87</t>
+          <t>51,49; 52,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,42; 52,4</t>
+          <t>51,73; 53,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,4</t>
+          <t>52,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,91</t>
+          <t>52,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,92</t>
+          <t>52,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,02</t>
+          <t>52,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>50,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>49,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,83</t>
+          <t>51,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>49,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,51</t>
+          <t>51,56</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,65</t>
+          <t>51,27</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51,86</t>
+          <t>51,97</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>51,89</t>
+          <t>50,69</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,92; 52,86</t>
+          <t>52,11; 53,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,43</t>
+          <t>51,99; 53,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,46; 53,35</t>
+          <t>52,26; 53,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 53,55</t>
+          <t>51,48; 52,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,16</t>
+          <t>49,78; 51,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,65; 50,01</t>
+          <t>49,24; 50,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,47</t>
+          <t>50,34; 51,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,21; 51,27</t>
+          <t>47,28; 51,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,84</t>
+          <t>51,03; 51,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,08</t>
+          <t>50,84; 51,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,23</t>
+          <t>51,53; 52,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 52,25</t>
+          <t>48,36; 51,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,67</t>
+          <t>52,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,64</t>
+          <t>51,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,9</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,19</t>
+          <t>52,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,46</t>
+          <t>50,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,94</t>
+          <t>48,85</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,08</t>
+          <t>50,18</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,89</t>
+          <t>50,32</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,56</t>
+          <t>51,19</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>51,27</t>
+          <t>50,12</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>51,97</t>
+          <t>50,88</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,93</t>
+          <t>51,31</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,11; 53,21</t>
+          <t>51,64; 52,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,99; 53,18</t>
+          <t>51,01; 52,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,44</t>
+          <t>51,05; 52,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,42; 52,93</t>
+          <t>51,98; 52,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,78; 51,16</t>
+          <t>49,73; 50,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,24; 50,68</t>
+          <t>48,23; 49,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,34; 51,75</t>
+          <t>49,55; 50,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,25; 50,97</t>
+          <t>49,72; 50,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 51,96</t>
+          <t>50,8; 51,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,84; 51,79</t>
+          <t>49,66; 50,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,53; 52,4</t>
+          <t>50,48; 51,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,45; 51,66</t>
+          <t>50,89; 51,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,15</t>
+          <t>52,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>52,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>51,67</t>
+          <t>52,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,37</t>
+          <t>52,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,31</t>
+          <t>50,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,85</t>
+          <t>49,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,18</t>
+          <t>50,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,05</t>
+          <t>50,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>51,19</t>
+          <t>51,65</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50,12</t>
+          <t>50,61</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50,88</t>
+          <t>51,51</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,11</t>
+          <t>51,61</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,64; 52,62</t>
+          <t>52,29; 52,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,03</t>
+          <t>51,7; 52,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,05; 52,21</t>
+          <t>52,19; 52,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,86</t>
+          <t>52,47; 53,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,73; 50,83</t>
+          <t>50,46; 51,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,41</t>
+          <t>48,86; 49,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,55; 50,76</t>
+          <t>50,27; 50,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,49; 50,54</t>
+          <t>49,28; 50,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,8; 51,57</t>
+          <t>51,46; 51,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,5</t>
+          <t>50,39; 50,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,27</t>
+          <t>51,28; 51,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,7; 51,52</t>
+          <t>51,02; 52,01</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>52,56</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>52,05</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>52,44</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>52,6</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>50,77</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>49,22</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>50,61</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,47</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>51,65</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>50,61</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>51,51</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>51,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>52,29; 52,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>51,7; 52,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>52,19; 52,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>52,28; 52,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>50,46; 51,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>48,86; 49,56</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>50,27; 50,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>49,88; 50,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>51,46; 51,85</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>50,39; 50,83</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>51,28; 51,71</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>51,13; 51,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,76; 53,67</t>
+          <t>52,72; 53,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,67; 52,88</t>
+          <t>51,78; 52,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,65; 52,89</t>
+          <t>51,63; 52,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,19; 53,49</t>
+          <t>52,23; 53,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,41; 52,55</t>
+          <t>51,43; 52,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,93; 49,55</t>
+          <t>47,85; 49,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,6; 51,09</t>
+          <t>49,62; 51,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,91; 52,01</t>
+          <t>50,94; 51,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,93</t>
+          <t>52,24; 52,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,98; 50,97</t>
+          <t>50,0; 51,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,72; 51,81</t>
+          <t>50,82; 51,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,68; 52,56</t>
+          <t>51,73; 52,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,92; 52,86</t>
+          <t>51,92; 52,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,43</t>
+          <t>51,38; 52,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,46; 53,35</t>
+          <t>52,51; 53,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,69; 54,29</t>
+          <t>52,72; 54,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,16</t>
+          <t>50,03; 51,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,65; 50,01</t>
+          <t>48,8; 50,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,47</t>
+          <t>50,2; 51,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,27; 51,31</t>
+          <t>50,24; 51,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,84</t>
+          <t>51,12; 51,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,08</t>
+          <t>50,2; 51,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,23</t>
+          <t>51,45; 52,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,73; 53,11</t>
+          <t>51,76; 53,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,11; 53,21</t>
+          <t>52,09; 53,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,99; 53,18</t>
+          <t>51,97; 53,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,44</t>
+          <t>52,27; 53,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 52,99</t>
+          <t>51,41; 52,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,78; 51,16</t>
+          <t>49,74; 51,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,24; 50,68</t>
+          <t>49,19; 50,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,34; 51,75</t>
+          <t>50,3; 51,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,28; 51,36</t>
+          <t>47,02; 51,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,03; 51,96</t>
+          <t>51,1; 51,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,84; 51,79</t>
+          <t>50,81; 51,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,53; 52,4</t>
+          <t>51,53; 52,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,36; 51,82</t>
+          <t>48,52; 51,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,64; 52,62</t>
+          <t>51,6; 52,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,03</t>
+          <t>50,93; 52,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,05; 52,21</t>
+          <t>51,15; 52,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,98; 52,99</t>
+          <t>51,95; 53,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,73; 50,83</t>
+          <t>49,73; 50,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,41</t>
+          <t>48,22; 49,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,55; 50,76</t>
+          <t>49,53; 50,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,72; 50,9</t>
+          <t>49,75; 50,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,8; 51,57</t>
+          <t>50,81; 51,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,5</t>
+          <t>49,71; 50,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,27</t>
+          <t>50,48; 51,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,89; 51,73</t>
+          <t>50,9; 51,7</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1284,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,31; 52,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,75; 52,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,17; 52,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,47; 53,36</t>
+          <t>52,48; 53,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1314,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,31; 50,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,95</t>
+          <t>49,39; 50,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,45; 51,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,4; 50,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,01</t>
+          <t>50,98; 51,99</t>
         </is>
       </c>
     </row>
